--- a/opm_hero_property/heroes/39.xlsx
+++ b/opm_hero_property/heroes/39.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11224</v>
       </c>
       <c r="D4" t="n">
-        <v>11224</v>
+        <v>11690</v>
       </c>
       <c r="E4" t="n">
         <v>226</v>
@@ -1304,7 +1305,7 @@
         <v>12611</v>
       </c>
       <c r="D5" t="n">
-        <v>12611</v>
+        <v>13606</v>
       </c>
       <c r="E5" t="n">
         <v>339</v>
@@ -1411,7 +1412,7 @@
         <v>14243</v>
       </c>
       <c r="D6" t="n">
-        <v>14243</v>
+        <v>15859</v>
       </c>
       <c r="E6" t="n">
         <v>465</v>
@@ -1518,7 +1519,7 @@
         <v>16120</v>
       </c>
       <c r="D7" t="n">
-        <v>16120</v>
+        <v>20564</v>
       </c>
       <c r="E7" t="n">
         <v>872</v>
@@ -1625,7 +1626,7 @@
         <v>18241</v>
       </c>
       <c r="D8" t="n">
-        <v>18241</v>
+        <v>27071</v>
       </c>
       <c r="E8" t="n">
         <v>1291</v>
@@ -1732,7 +1733,7 @@
         <v>20689</v>
       </c>
       <c r="D9" t="n">
-        <v>20689</v>
+        <v>35832</v>
       </c>
       <c r="E9" t="n">
         <v>1705</v>
@@ -1839,7 +1840,7 @@
         <v>21994</v>
       </c>
       <c r="D10" t="n">
-        <v>21994</v>
+        <v>43128</v>
       </c>
       <c r="E10" t="n">
         <v>2014</v>
@@ -1946,7 +1947,7 @@
         <v>23545</v>
       </c>
       <c r="D11" t="n">
-        <v>23545</v>
+        <v>52086</v>
       </c>
       <c r="E11" t="n">
         <v>2350</v>
@@ -2053,7 +2054,7 @@
         <v>26808</v>
       </c>
       <c r="D12" t="n">
-        <v>26808</v>
+        <v>68030</v>
       </c>
       <c r="E12" t="n">
         <v>2893</v>
@@ -2160,7 +2161,7 @@
         <v>27461</v>
       </c>
       <c r="D13" t="n">
-        <v>27461</v>
+        <v>70283</v>
       </c>
       <c r="E13" t="n">
         <v>3254</v>
@@ -2267,7 +2268,7 @@
         <v>28114</v>
       </c>
       <c r="D14" t="n">
-        <v>28114</v>
+        <v>72537</v>
       </c>
       <c r="E14" t="n">
         <v>3616</v>
@@ -2374,7 +2375,7 @@
         <v>28766</v>
       </c>
       <c r="D15" t="n">
-        <v>28766</v>
+        <v>74790</v>
       </c>
       <c r="E15" t="n">
         <v>3977</v>
@@ -2481,7 +2482,7 @@
         <v>29419</v>
       </c>
       <c r="D16" t="n">
-        <v>29419</v>
+        <v>77044</v>
       </c>
       <c r="E16" t="n">
         <v>4339</v>
@@ -2588,7 +2589,7 @@
         <v>30072</v>
       </c>
       <c r="D17" t="n">
-        <v>30072</v>
+        <v>79298</v>
       </c>
       <c r="E17" t="n">
         <v>4700</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>39</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>35903.3357536</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4203.3611554</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2509.3299</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>48632.3862528</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6442.957625200001</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3601.627</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>39</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>84483.0854048</v>
+      </c>
+      <c r="U4" t="n">
+        <v>11831.0617</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7333.984</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>39</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>84483.0854048</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11831.0617</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7333.984</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1370</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>39</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>71349.0979808</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11351.3407</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7333.984</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>39</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>298667.6234424</v>
+      </c>
+      <c r="U7" t="n">
+        <v>42784.543216</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30846.921</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1830</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>39</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>239456.6435304</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40752.309136</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30846.921</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>39</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>259193.6368344</v>
+      </c>
+      <c r="U9" t="n">
+        <v>41429.720496</v>
+      </c>
+      <c r="V9" t="n">
+        <v>30846.921</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1230</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>39</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>278930.6301384</v>
+      </c>
+      <c r="U10" t="n">
+        <v>42107.131856</v>
+      </c>
+      <c r="V10" t="n">
+        <v>30846.921</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1530</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>39</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>298667.6234424</v>
+      </c>
+      <c r="U11" t="n">
+        <v>42784.543216</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30846.921</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1830</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>39</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>298667.6234424</v>
+      </c>
+      <c r="U12" t="n">
+        <v>42784.543216</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30846.921</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1760</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>39</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>442608.4623704</v>
+      </c>
+      <c r="U13" t="n">
+        <v>63447.3894152</v>
+      </c>
+      <c r="V13" t="n">
+        <v>52500.7326</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1900</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>39</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>442608.4623704</v>
+      </c>
+      <c r="U14" t="n">
+        <v>63447.3894152</v>
+      </c>
+      <c r="V14" t="n">
+        <v>52500.7326</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1970</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>39</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1086296.1358832</v>
+      </c>
+      <c r="U15" t="n">
+        <v>148267.3789656</v>
+      </c>
+      <c r="V15" t="n">
+        <v>153643.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2250</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>39</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5517269.3188328</v>
+      </c>
+      <c r="U16" t="n">
+        <v>814894.4603152</v>
+      </c>
+      <c r="V16" t="n">
+        <v>741801.9046</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2810</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>39</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>9029613.436752401</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1328847.3745008</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1208980.9272</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>39</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>221790.0984712</v>
+      </c>
+      <c r="U18" t="n">
+        <v>42542.8952284</v>
+      </c>
+      <c r="V18" t="n">
+        <v>27717.6624</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>39</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>315225.2098856</v>
+      </c>
+      <c r="U19" t="n">
+        <v>52348.209786</v>
+      </c>
+      <c r="V19" t="n">
+        <v>37982.3028</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1160</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>39</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>414978.4267576</v>
+      </c>
+      <c r="U20" t="n">
+        <v>64069.8035376</v>
+      </c>
+      <c r="V20" t="n">
+        <v>51814.387</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1530</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>39</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>492256.9067308</v>
+      </c>
+      <c r="U21" t="n">
+        <v>72632.2593496</v>
+      </c>
+      <c r="V21" t="n">
+        <v>60220.9907</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1970</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>39</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>567570.6060800001</v>
+      </c>
+      <c r="U22" t="n">
+        <v>85635.7700372</v>
+      </c>
+      <c r="V22" t="n">
+        <v>74971.3796</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2250</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>39</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>722810.7238356</v>
+      </c>
+      <c r="U23" t="n">
+        <v>112247.2323024</v>
+      </c>
+      <c r="V23" t="n">
+        <v>104803.1638</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2810</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/39.xlsx
+++ b/opm_hero_property/heroes/39.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>35903.3357536</v>
+        <v>5652146.3188328</v>
       </c>
       <c r="U2" t="n">
-        <v>4203.3611554</v>
+        <v>838622.4603152</v>
       </c>
       <c r="V2" t="n">
-        <v>2509.3299</v>
+        <v>763641.9046</v>
       </c>
       <c r="W2" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X2" t="n">
-        <v>1300</v>
+        <v>2810</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11683572.80909</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1556446.13736768</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15845712.24645768</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>48632.3862528</v>
+        <v>722810.7238356</v>
       </c>
       <c r="U3" t="n">
-        <v>6442.957625200001</v>
+        <v>112247.2323024</v>
       </c>
       <c r="V3" t="n">
-        <v>3601.627</v>
+        <v>104803.1638</v>
       </c>
       <c r="W3" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X3" t="n">
-        <v>1300</v>
+        <v>2810</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>2990</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1324690.23103</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>176599.73754216</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2116064.81857216</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>84483.0854048</v>
+        <v>7496.4488</v>
       </c>
       <c r="U4" t="n">
-        <v>11831.0617</v>
+        <v>1600.4267</v>
       </c>
       <c r="V4" t="n">
-        <v>7333.984</v>
+        <v>633.3299</v>
       </c>
       <c r="W4" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>1300</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19411.639955</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23910.539955</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>84483.0854048</v>
+        <v>19882.1824</v>
       </c>
       <c r="U5" t="n">
-        <v>11831.0617</v>
+        <v>4007.2746</v>
       </c>
       <c r="V5" t="n">
-        <v>7333.984</v>
+        <v>1947.627</v>
       </c>
       <c r="W5" t="n">
-        <v>1300</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>1370</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB5" t="n">
         <v>400</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1070</v>
-      </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49521.13239000001</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61427.93238999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>71349.0979808</v>
+        <v>56911.2984</v>
       </c>
       <c r="U6" t="n">
-        <v>11351.3407</v>
+        <v>9995.35</v>
       </c>
       <c r="V6" t="n">
-        <v>7333.984</v>
+        <v>6333.984</v>
       </c>
       <c r="W6" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>118811.1214</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9157</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>166867.1214</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>298667.6234424</v>
+        <v>56911.2984</v>
       </c>
       <c r="U7" t="n">
-        <v>42784.543216</v>
+        <v>9995.35</v>
       </c>
       <c r="V7" t="n">
-        <v>30846.921</v>
+        <v>6333.984</v>
       </c>
       <c r="W7" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X7" t="n">
-        <v>1830</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA7" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB7" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>118811.1214</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>167105.1214</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>239456.6435304</v>
+        <v>57349.0979808</v>
       </c>
       <c r="U8" t="n">
-        <v>40752.309136</v>
+        <v>10011.3407</v>
       </c>
       <c r="V8" t="n">
-        <v>30846.921</v>
+        <v>6333.984</v>
       </c>
       <c r="W8" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB8" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>118811.1214</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>548.1354108</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>167653.2568108</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,27 +7776,27 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>259193.6368344</v>
+        <v>236693.9442</v>
       </c>
       <c r="U9" t="n">
-        <v>41429.720496</v>
+        <v>40841.568</v>
       </c>
       <c r="V9" t="n">
-        <v>30846.921</v>
+        <v>30973.921</v>
       </c>
       <c r="W9" t="n">
         <v>1940</v>
       </c>
       <c r="X9" t="n">
-        <v>1230</v>
+        <v>930</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>539887.15915</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>707913.8091500001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,27 +7911,27 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>278930.6301384</v>
+        <v>238667.6435304</v>
       </c>
       <c r="U10" t="n">
-        <v>42107.131856</v>
+        <v>40909.309136</v>
       </c>
       <c r="V10" t="n">
-        <v>30846.921</v>
+        <v>30973.921</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
       </c>
       <c r="X10" t="n">
-        <v>1530</v>
+        <v>930</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>539887.15915</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2441.1131688</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>710354.9223188</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,27 +8046,27 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>298667.6234424</v>
+        <v>258404.6368344</v>
       </c>
       <c r="U11" t="n">
-        <v>42784.543216</v>
+        <v>41586.720496</v>
       </c>
       <c r="V11" t="n">
-        <v>30846.921</v>
+        <v>30973.921</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
       </c>
       <c r="X11" t="n">
-        <v>1830</v>
+        <v>1230</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>539887.15915</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>27347.2448568</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>735261.0540068001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,27 +8181,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>298667.6234424</v>
+        <v>278141.6301384</v>
       </c>
       <c r="U12" t="n">
-        <v>42784.543216</v>
+        <v>42264.131856</v>
       </c>
       <c r="V12" t="n">
-        <v>30846.921</v>
+        <v>30973.921</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
       </c>
       <c r="X12" t="n">
-        <v>1760</v>
+        <v>1530</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -7933,7 +8213,7 @@
         <v>2880</v>
       </c>
       <c r="AB12" t="n">
-        <v>1940</v>
+        <v>2010</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>539887.15915</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>52253.3765448</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>760167.1856948</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,23 +8320,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>442608.4623704</v>
+        <v>297878.6234424</v>
       </c>
       <c r="U13" t="n">
-        <v>63447.3894152</v>
+        <v>42941.543216</v>
       </c>
       <c r="V13" t="n">
-        <v>52500.7326</v>
+        <v>30973.921</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
       </c>
       <c r="X13" t="n">
-        <v>1900</v>
+        <v>1830</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8044,31 +8348,55 @@
         <v>2880</v>
       </c>
       <c r="AB13" t="n">
-        <v>2080</v>
+        <v>2010</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>539887.15915</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>77159.5082328</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>785073.3173827999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,23 +8455,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>442608.4623704</v>
+        <v>297878.6234424</v>
       </c>
       <c r="U14" t="n">
-        <v>63447.3894152</v>
+        <v>42941.543216</v>
       </c>
       <c r="V14" t="n">
-        <v>52500.7326</v>
+        <v>30973.921</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
       </c>
       <c r="X14" t="n">
-        <v>1970</v>
+        <v>1760</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8155,31 +8483,55 @@
         <v>2880</v>
       </c>
       <c r="AB14" t="n">
-        <v>2150</v>
+        <v>1940</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>539887.15915</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>77159.5082328</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38508</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>784835.3173827999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,23 +8590,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1086296.1358832</v>
+        <v>445108.4623704</v>
       </c>
       <c r="U15" t="n">
-        <v>148267.3789656</v>
+        <v>64255.3894152</v>
       </c>
       <c r="V15" t="n">
-        <v>153643.2</v>
+        <v>53274.7326</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
       </c>
       <c r="X15" t="n">
-        <v>2250</v>
+        <v>1900</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8266,31 +8618,55 @@
         <v>2880</v>
       </c>
       <c r="AB15" t="n">
-        <v>2430</v>
+        <v>2080</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>834206.88589</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>114787.67589528</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111462</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1207836.36178528</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,23 +8725,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5517269.3188328</v>
+        <v>445108.4623704</v>
       </c>
       <c r="U16" t="n">
-        <v>814894.4603152</v>
+        <v>64255.3894152</v>
       </c>
       <c r="V16" t="n">
-        <v>741801.9046</v>
+        <v>53274.7326</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
       </c>
       <c r="X16" t="n">
-        <v>2810</v>
+        <v>1970</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8377,31 +8753,55 @@
         <v>2880</v>
       </c>
       <c r="AB16" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>834206.88589</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>114787.67589528</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111700</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1208074.36178528</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,23 +8860,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>9029613.436752401</v>
+        <v>1123791.1358832</v>
       </c>
       <c r="U17" t="n">
-        <v>1328847.3745008</v>
+        <v>155124.3789656</v>
       </c>
       <c r="V17" t="n">
-        <v>1208980.9272</v>
+        <v>160276.2</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
       </c>
       <c r="X17" t="n">
-        <v>3720</v>
+        <v>2250</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8488,64 +8888,88 @@
         <v>2880</v>
       </c>
       <c r="AB17" t="n">
-        <v>3900</v>
+        <v>2430</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1919411.43532</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>252405.71542584</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>688289.2</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3129963.50074584</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>221790.0984712</v>
+        <v>5652146.3188328</v>
       </c>
       <c r="U18" t="n">
-        <v>42542.8952284</v>
+        <v>838622.4603152</v>
       </c>
       <c r="V18" t="n">
-        <v>27717.6624</v>
+        <v>763641.9046</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>2810</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1070</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11683572.80909</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1556446.13736768</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15845712.24645768</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,37 +9116,37 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>315225.2098856</v>
+        <v>9339331.436752401</v>
       </c>
       <c r="U19" t="n">
-        <v>52348.209786</v>
+        <v>1382880.3745008</v>
       </c>
       <c r="V19" t="n">
-        <v>37982.3028</v>
+        <v>1258212.9272</v>
       </c>
       <c r="W19" t="n">
         <v>1940</v>
       </c>
       <c r="X19" t="n">
-        <v>1160</v>
+        <v>3720</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
@@ -8710,31 +9158,55 @@
         <v>2880</v>
       </c>
       <c r="AB19" t="n">
-        <v>1940</v>
+        <v>3900</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18954514.74706</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2530766.60514792</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3474140.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26135154.35220792</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>414978.4267576</v>
+        <v>207790.0984712</v>
       </c>
       <c r="U20" t="n">
-        <v>64069.8035376</v>
+        <v>41202.8952284</v>
       </c>
       <c r="V20" t="n">
-        <v>51814.387</v>
+        <v>26717.6624</v>
       </c>
       <c r="W20" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X20" t="n">
-        <v>1530</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA20" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB20" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>568482.42938</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2589.90496716</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32014.4</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>650522.13434716</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>492256.9067308</v>
+        <v>285825.2098856</v>
       </c>
       <c r="U21" t="n">
-        <v>72632.2593496</v>
+        <v>49534.209786</v>
       </c>
       <c r="V21" t="n">
-        <v>60220.9907</v>
+        <v>35882.3028</v>
       </c>
       <c r="W21" t="n">
-        <v>1940</v>
+        <v>1100</v>
       </c>
       <c r="X21" t="n">
-        <v>1970</v>
+        <v>890</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AA21" t="n">
-        <v>2880</v>
+        <v>1800</v>
       </c>
       <c r="AB21" t="n">
-        <v>2150</v>
+        <v>1265</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>675357.0216</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>33822.576909</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>64028.8</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>841344.2485090001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,37 +9521,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>567570.6060800001</v>
+        <v>414978.4267576</v>
       </c>
       <c r="U22" t="n">
-        <v>85635.7700372</v>
+        <v>64069.8035376</v>
       </c>
       <c r="V22" t="n">
-        <v>74971.3796</v>
+        <v>51814.387</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
       </c>
       <c r="X22" t="n">
-        <v>2250</v>
+        <v>1530</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9043,31 +9563,55 @@
         <v>2880</v>
       </c>
       <c r="AB22" t="n">
-        <v>2430</v>
+        <v>2010</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>857857.7073700001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>80000.58904704</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>91895.2</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1167295.79641704</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,23 +9670,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>722810.7238356</v>
+        <v>492256.9067308</v>
       </c>
       <c r="U23" t="n">
-        <v>112247.2323024</v>
+        <v>72632.2593496</v>
       </c>
       <c r="V23" t="n">
-        <v>104803.1638</v>
+        <v>60220.9907</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
       </c>
       <c r="X23" t="n">
-        <v>2810</v>
+        <v>1970</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9154,31 +9698,325 @@
         <v>2880</v>
       </c>
       <c r="AB23" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>937754.445945</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>128016.49682304</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>142670</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1352964.19276804</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>39</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>567570.6060800001</v>
+      </c>
+      <c r="U24" t="n">
+        <v>85635.7700372</v>
+      </c>
+      <c r="V24" t="n">
+        <v>74971.3796</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2250</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1063659.85684</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>143708.74519668</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>239067.6</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1603768.85203668</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>39</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>722810.7238356</v>
+      </c>
+      <c r="U25" t="n">
+        <v>112247.2323024</v>
+      </c>
+      <c r="V25" t="n">
+        <v>104803.1638</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2810</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1324690.23103</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>176599.73754216</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2116064.81857216</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/39.xlsx
+++ b/opm_hero_property/heroes/39.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>39</v>
@@ -6835,17 +6855,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5652146.3188328</v>
+        <v>6462622.0546248</v>
       </c>
       <c r="U2" t="n">
-        <v>838622.4603152</v>
+        <v>1006208.6418832</v>
       </c>
       <c r="V2" t="n">
-        <v>763641.9046</v>
+        <v>909212.736968</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -6884,33 +6904,41 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11683572.80909</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1556446.13736768</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
-        <v>15845712.24645768</v>
+        <v>2945149.8247272</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1869232.85</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18649564.92118488</v>
       </c>
     </row>
     <row r="3">
@@ -6947,7 +6975,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>39</v>
@@ -6970,17 +6998,17 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>722810.7238356</v>
+        <v>814083.1392196</v>
       </c>
       <c r="U3" t="n">
-        <v>112247.2323024</v>
+        <v>131120.2479184</v>
       </c>
       <c r="V3" t="n">
-        <v>104803.1638</v>
+        <v>121538.736904</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7019,33 +7047,41 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1324690.23103</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>176599.73754216</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
-        <v>2116064.81857216</v>
+        <v>537764.0184824</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>211816.55</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2433790.58705456</v>
       </c>
     </row>
     <row r="4">
@@ -7082,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>39</v>
@@ -7105,17 +7141,17 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7496.4488</v>
+        <v>7923.4488</v>
       </c>
       <c r="U4" t="n">
-        <v>1600.4267</v>
+        <v>1688.4267</v>
       </c>
       <c r="V4" t="n">
-        <v>633.3299</v>
+        <v>709.3299</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7154,25 +7190,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19411.639955</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7180,7 +7212,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23910.539955</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1471.2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25381.739955</v>
       </c>
     </row>
     <row r="5">
@@ -7217,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>39</v>
@@ -7240,17 +7284,17 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>3,2,2,2,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19882.1824</v>
+        <v>32428.1824</v>
       </c>
       <c r="U5" t="n">
-        <v>4007.2746</v>
+        <v>6601.274600000001</v>
       </c>
       <c r="V5" t="n">
-        <v>1947.627</v>
+        <v>4200.627</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7289,25 +7333,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49521.13239000001</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7315,7 +7355,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61427.93238999999</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43399.35000000001</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>104827.28239</v>
       </c>
     </row>
     <row r="6">
@@ -7352,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>39</v>
@@ -7375,17 +7427,17 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>4,3,2,2,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>56911.2984</v>
+        <v>110700.2984</v>
       </c>
       <c r="U6" t="n">
-        <v>9995.35</v>
+        <v>21117.35</v>
       </c>
       <c r="V6" t="n">
-        <v>6333.984</v>
+        <v>15994.984</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7424,33 +7476,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>118811.1214</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9157</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>166867.1214</v>
+      <c r="AT6" t="n">
+        <v>186081.55</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>352948.6714</v>
       </c>
     </row>
     <row r="7">
@@ -7487,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>39</v>
@@ -7510,17 +7570,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>4,3,2,2,0,1,0,0</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>56911.2984</v>
+        <v>110700.2984</v>
       </c>
       <c r="U7" t="n">
-        <v>9995.35</v>
+        <v>21117.35</v>
       </c>
       <c r="V7" t="n">
-        <v>6333.984</v>
+        <v>15994.984</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7559,33 +7619,41 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>118811.1214</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>167105.1214</v>
+      <c r="AT7" t="n">
+        <v>186081.55</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>353186.6714</v>
       </c>
     </row>
     <row r="8">
@@ -7622,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>39</v>
@@ -7645,17 +7713,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,1,1,0,0</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>57349.0979808</v>
+        <v>111138.0979808</v>
       </c>
       <c r="U8" t="n">
-        <v>10011.3407</v>
+        <v>21133.3407</v>
       </c>
       <c r="V8" t="n">
-        <v>6333.984</v>
+        <v>15994.984</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -7694,33 +7762,41 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>118811.1214</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>548.1354108</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>167653.2568108</v>
+      <c r="AT8" t="n">
+        <v>186081.55</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>353734.8068108</v>
       </c>
     </row>
     <row r="9">
@@ -7757,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>39</v>
@@ -7780,35 +7856,35 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>5,3,3,3,0,2,1,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>236693.9442</v>
+        <v>401163.693642</v>
       </c>
       <c r="U9" t="n">
-        <v>40841.568</v>
+        <v>72184.27368</v>
       </c>
       <c r="V9" t="n">
-        <v>30973.921</v>
+        <v>57911.93021</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB9" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7829,33 +7905,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>539887.15915</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>707913.8091500001</v>
+        <v>44136.62159150001</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>436009.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1243661.7807415</v>
       </c>
     </row>
     <row r="10">
@@ -7892,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>39</v>
@@ -7915,35 +7999,35 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>5,3,3,3,1,2,1,0</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>238667.6435304</v>
+        <v>459990.8260459032</v>
       </c>
       <c r="U10" t="n">
-        <v>40909.309136</v>
+        <v>81574.655349376</v>
       </c>
       <c r="V10" t="n">
-        <v>30973.921</v>
+        <v>64451.54495378</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB10" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7964,33 +8048,45 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>539887.15915</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2441.1131688</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
       <c r="AS10" t="n">
-        <v>710354.9223188</v>
+        <v>44136.62159150001</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>436009.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>253130.0375305326</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1404885.331440833</v>
       </c>
     </row>
     <row r="11">
@@ -8027,7 +8123,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>39</v>
@@ -8050,35 +8146,35 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,2,2,1,0</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>258404.6368344</v>
+        <v>544257.8052293751</v>
       </c>
       <c r="U11" t="n">
-        <v>41586.720496</v>
+        <v>90987.14151833601</v>
       </c>
       <c r="V11" t="n">
-        <v>30973.921</v>
+        <v>71577.54495377999</v>
       </c>
       <c r="W11" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X11" t="n">
-        <v>1230</v>
+        <v>1240</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB11" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8099,33 +8195,45 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>539887.15915</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>27347.2448568</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
       <c r="AS11" t="n">
-        <v>735261.0540068001</v>
+        <v>44136.62159150001</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>436009.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>418906.5395918285</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1595567.965190128</v>
       </c>
     </row>
     <row r="12">
@@ -8162,7 +8270,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>39</v>
@@ -8185,35 +8293,35 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,3,2,1,0</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>278141.6301384</v>
+        <v>646647.6745515883</v>
       </c>
       <c r="U12" t="n">
-        <v>42264.131856</v>
+        <v>101143.157124256</v>
       </c>
       <c r="V12" t="n">
-        <v>30973.921</v>
+        <v>82384.61527882</v>
       </c>
       <c r="W12" t="n">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="X12" t="n">
-        <v>1530</v>
+        <v>1550</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>2880</v>
+        <v>2900</v>
       </c>
       <c r="AB12" t="n">
-        <v>2010</v>
+        <v>2090</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8234,33 +8342,45 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>539887.15915</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>52253.3765448</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
       <c r="AS12" t="n">
-        <v>760167.1856948</v>
+        <v>44136.62159150001</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>436009.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>629222.4392758696</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1830789.99656217</v>
       </c>
     </row>
     <row r="13">
@@ -8297,7 +8417,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>39</v>
@@ -8320,35 +8440,35 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,4,2,1,0</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>297878.6234424</v>
+        <v>762871.1607149723</v>
       </c>
       <c r="U13" t="n">
-        <v>42941.543216</v>
+        <v>114683.058122816</v>
       </c>
       <c r="V13" t="n">
-        <v>30973.921</v>
+        <v>93238.08727881999</v>
       </c>
       <c r="W13" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X13" t="n">
-        <v>1830</v>
+        <v>1880</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB13" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8369,33 +8489,45 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>539887.15915</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>77159.5082328</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
       <c r="AS13" t="n">
-        <v>785073.3173827999</v>
+        <v>44136.62159150001</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>436009.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>877227.5746413176</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2103701.263615618</v>
       </c>
     </row>
     <row r="14">
@@ -8432,7 +8564,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>39</v>
@@ -8455,35 +8587,35 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,4,2,0,0</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>297878.6234424</v>
+        <v>894158.1827828512</v>
       </c>
       <c r="U14" t="n">
-        <v>42941.543216</v>
+        <v>129503.486869504</v>
       </c>
       <c r="V14" t="n">
-        <v>30973.921</v>
+        <v>103686.07253504</v>
       </c>
       <c r="W14" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X14" t="n">
-        <v>1760</v>
+        <v>1810</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB14" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8504,33 +8636,45 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>539887.15915</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>77159.5082328</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38508</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
       <c r="AS14" t="n">
-        <v>784835.3173827999</v>
+        <v>43898.62159150001</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>436009.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1170851.470284609</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2397087.159258909</v>
       </c>
     </row>
     <row r="15">
@@ -8567,7 +8711,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>39</v>
@@ -8590,35 +8734,35 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,2,0</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>445108.4623704</v>
+        <v>1425278.453118979</v>
       </c>
       <c r="U15" t="n">
-        <v>64255.3894152</v>
+        <v>218888.718513704</v>
       </c>
       <c r="V15" t="n">
-        <v>53274.7326</v>
+        <v>178925.134783836</v>
       </c>
       <c r="W15" t="n">
-        <v>1940</v>
+        <v>2040</v>
       </c>
       <c r="X15" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>2880</v>
+        <v>2980</v>
       </c>
       <c r="AB15" t="n">
-        <v>2080</v>
+        <v>2480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8639,33 +8783,45 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>834206.88589</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>114787.67589528</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111462</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS15" t="n">
-        <v>1207836.36178528</v>
+        <v>128129.6377178</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>797757.3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1956404.836367514</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3978666.135870594</v>
       </c>
     </row>
     <row r="16">
@@ -8702,7 +8858,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>39</v>
@@ -8725,35 +8881,35 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,2,1</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>445108.4623704</v>
+        <v>1452225.94386673</v>
       </c>
       <c r="U16" t="n">
-        <v>64255.3894152</v>
+        <v>222943.7408466192</v>
       </c>
       <c r="V16" t="n">
-        <v>53274.7326</v>
+        <v>182178.231539868</v>
       </c>
       <c r="W16" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X16" t="n">
-        <v>1970</v>
+        <v>2170</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB16" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8774,33 +8930,45 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>834206.88589</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>114787.67589528</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111700</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
       <c r="AS16" t="n">
-        <v>1208074.36178528</v>
+        <v>128367.6377178</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>797757.3</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2031237.287559563</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4053736.587062643</v>
       </c>
     </row>
     <row r="17">
@@ -8837,7 +9005,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>39</v>
@@ -8860,35 +9028,35 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,3,3,3</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1123791.1358832</v>
+        <v>2698319.954834918</v>
       </c>
       <c r="U17" t="n">
-        <v>155124.3789656</v>
+        <v>396412.9072172672</v>
       </c>
       <c r="V17" t="n">
-        <v>160276.2</v>
+        <v>366386.882176</v>
       </c>
       <c r="W17" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X17" t="n">
-        <v>2250</v>
+        <v>2450</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB17" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8909,33 +9077,45 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1919411.43532</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>252405.71542584</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>688289.2</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
       <c r="AS17" t="n">
-        <v>3129963.50074584</v>
+        <v>765032.6574128</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1274622.6</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3075590.028987423</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7556919.587146062</v>
       </c>
     </row>
     <row r="18">
@@ -8972,7 +9152,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>39</v>
@@ -8995,35 +9175,35 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5652146.3188328</v>
+        <v>9683464.888020264</v>
       </c>
       <c r="U18" t="n">
-        <v>838622.4603152</v>
+        <v>1393484.861625418</v>
       </c>
       <c r="V18" t="n">
-        <v>763641.9046</v>
+        <v>1239661.583930224</v>
       </c>
       <c r="W18" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X18" t="n">
-        <v>2810</v>
+        <v>3010</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB18" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9044,33 +9224,45 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11683572.80909</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1556446.13736768</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
       <c r="AS18" t="n">
-        <v>15845712.24645768</v>
+        <v>2945149.8247272</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1869232.85</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7795529.619649553</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26445094.54083443</v>
       </c>
     </row>
     <row r="19">
@@ -9107,7 +9299,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>39</v>
@@ -9130,35 +9322,35 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9339331.436752401</v>
+        <v>16727871.52875276</v>
       </c>
       <c r="U19" t="n">
-        <v>1382880.3745008</v>
+        <v>2512101.252884787</v>
       </c>
       <c r="V19" t="n">
-        <v>1258212.9272</v>
+        <v>2228326.20327552</v>
       </c>
       <c r="W19" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X19" t="n">
-        <v>3720</v>
+        <v>3920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB19" t="n">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9179,33 +9371,45 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18954514.74706</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2530766.60514792</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3474140.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
       <c r="AS19" t="n">
-        <v>26135154.35220792</v>
+        <v>6317193.662059</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1869232.85</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>16048429.17822511</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46895869.84249203</v>
       </c>
     </row>
     <row r="20">
@@ -9242,7 +9446,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>39</v>
@@ -9265,17 +9469,17 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,1,1,0,0</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>207790.0984712</v>
+        <v>213847.0984712</v>
       </c>
       <c r="U20" t="n">
-        <v>41202.8952284</v>
+        <v>42454.8952284</v>
       </c>
       <c r="V20" t="n">
-        <v>26717.6624</v>
+        <v>27827.6624</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9314,33 +9518,41 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>568482.42938</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2589.90496716</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32014.4</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>650522.13434716</v>
+      <c r="AT20" t="n">
+        <v>21078.3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>671600.43434716</v>
       </c>
     </row>
     <row r="21">
@@ -9377,7 +9589,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>39</v>
@@ -9400,17 +9612,17 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,2,2,0,0</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>285825.2098856</v>
+        <v>298363.7700436</v>
       </c>
       <c r="U21" t="n">
-        <v>49534.209786</v>
+        <v>52137.867416</v>
       </c>
       <c r="V21" t="n">
-        <v>35882.3028</v>
+        <v>38111.645828</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9449,33 +9661,41 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>675357.0216</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>33822.576909</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>64028.8</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="n">
-        <v>841344.2485090001</v>
+        <v>70774.12021600001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36577.2</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>884666.7687250001</v>
       </c>
     </row>
     <row r="22">
@@ -9512,7 +9732,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>39</v>
@@ -9535,35 +9755,35 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,3,2,1,0</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>414978.4267576</v>
+        <v>541937.6133718172</v>
       </c>
       <c r="U22" t="n">
-        <v>64069.8035376</v>
+        <v>82646.37907351358</v>
       </c>
       <c r="V22" t="n">
-        <v>51814.387</v>
+        <v>67493.92762308</v>
       </c>
       <c r="W22" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X22" t="n">
-        <v>1530</v>
+        <v>1580</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB22" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9584,33 +9804,45 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>857857.7073700001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>80000.58904704</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>91895.2</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
       <c r="AS22" t="n">
-        <v>1167295.79641704</v>
+        <v>100465.5270737</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49399.10000000001</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>287925.489321031</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1513190.712811771</v>
       </c>
     </row>
     <row r="23">
@@ -9647,7 +9879,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>39</v>
@@ -9670,35 +9902,35 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,2,1</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>492256.9067308</v>
+        <v>710901.0852346848</v>
       </c>
       <c r="U23" t="n">
-        <v>72632.2593496</v>
+        <v>107409.8565246552</v>
       </c>
       <c r="V23" t="n">
-        <v>60220.9907</v>
+        <v>87585.51883750199</v>
       </c>
       <c r="W23" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X23" t="n">
-        <v>1970</v>
+        <v>2170</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB23" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9719,33 +9951,45 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>937754.445945</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>128016.49682304</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>142670</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
       <c r="AS23" t="n">
-        <v>1352964.19276804</v>
+        <v>161408.5889189</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>90390.85000000001</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>509226.1968835022</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1971319.828570442</v>
       </c>
     </row>
     <row r="24">
@@ -9782,7 +10026,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>39</v>
@@ -9805,35 +10049,35 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,3,3,3</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>567570.6060800001</v>
+        <v>889969.1717324799</v>
       </c>
       <c r="U24" t="n">
-        <v>85635.7700372</v>
+        <v>137578.3476998684</v>
       </c>
       <c r="V24" t="n">
-        <v>74971.3796</v>
+        <v>117193.226349472</v>
       </c>
       <c r="W24" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X24" t="n">
-        <v>2250</v>
+        <v>2450</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB24" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9854,33 +10098,45 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1063659.85684</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>143708.74519668</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>239067.6</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
       <c r="AS24" t="n">
-        <v>1603768.85203668</v>
+        <v>281580.9942736</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>144433.1</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>739031.476060756</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2529746.822371036</v>
       </c>
     </row>
     <row r="25">
@@ -9917,7 +10173,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>39</v>
@@ -9940,35 +10196,35 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>722810.7238356</v>
+        <v>1515002.943158765</v>
       </c>
       <c r="U25" t="n">
-        <v>112247.2323024</v>
+        <v>231340.9462087824</v>
       </c>
       <c r="V25" t="n">
-        <v>104803.1638</v>
+        <v>208038.373352472</v>
       </c>
       <c r="W25" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X25" t="n">
-        <v>2810</v>
+        <v>3010</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB25" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9989,33 +10245,45 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1324690.23103</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>176599.73754216</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
       <c r="AS25" t="n">
-        <v>2116064.81857216</v>
+        <v>537764.0184824</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>211816.55</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1892215.531721518</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4326006.118776077</v>
       </c>
     </row>
   </sheetData>
